--- a/topcode_db_design.xlsx
+++ b/topcode_db_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="9285" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="db_design" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
   <si>
     <t>Account</t>
   </si>
@@ -66,9 +66,6 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>towername</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>tower</t>
-  </si>
-  <si>
     <t>short_desc</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
     <t>req_id</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>Technical manager</t>
   </si>
   <si>
@@ -204,9 +195,6 @@
     <t>techmanager_user_role_id</t>
   </si>
   <si>
-    <t>accautomationowner_user_role_id</t>
-  </si>
-  <si>
     <t>primaryowner_user_role_id</t>
   </si>
   <si>
@@ -298,6 +286,63 @@
   </si>
   <si>
     <t>Solution either from new request/idea</t>
+  </si>
+  <si>
+    <t>approval_id</t>
+  </si>
+  <si>
+    <t>approval_status</t>
+  </si>
+  <si>
+    <t>approver_user_role_id</t>
+  </si>
+  <si>
+    <t>approver_comments</t>
+  </si>
+  <si>
+    <t>approval_type</t>
+  </si>
+  <si>
+    <t>Ideator</t>
+  </si>
+  <si>
+    <t>Person who posts the idea</t>
+  </si>
+  <si>
+    <t>posted_user_role_id</t>
+  </si>
+  <si>
+    <t>final_approval_id</t>
+  </si>
+  <si>
+    <t>ApprovalFlowHistory</t>
+  </si>
+  <si>
+    <t>approval_history_id</t>
+  </si>
+  <si>
+    <t>modified_user_role_id</t>
+  </si>
+  <si>
+    <t>posted_dt</t>
+  </si>
+  <si>
+    <t>modified_dt</t>
+  </si>
+  <si>
+    <t>modify_comments</t>
+  </si>
+  <si>
+    <t>type(req/idea)</t>
+  </si>
+  <si>
+    <t>request_id</t>
+  </si>
+  <si>
+    <t>acc_automation_owner_user_role_id</t>
+  </si>
+  <si>
+    <t>eng_member_role(dev/qa/business)</t>
   </si>
 </sst>
 </file>
@@ -337,7 +382,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -386,14 +431,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -405,6 +460,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +781,7 @@
     <col min="6" max="6" width="26.5703125" customWidth="1"/>
     <col min="7" max="7" width="32.5703125" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
     <col min="12" max="12" width="22.5703125" customWidth="1"/>
@@ -730,343 +789,391 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="E17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="E18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="10" t="s">
+    </row>
+    <row r="28" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E28" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E30" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E31" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="1"/>
+      <c r="E32" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E28" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="4" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="1"/>
-      <c r="E32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1077,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A12:B21"/>
+  <dimension ref="A12:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,15 +1206,15 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1115,55 +1222,63 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1175,7 +1290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1187,10 +1302,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1198,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1206,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1214,7 +1329,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1222,15 +1337,15 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/topcode_db_design.xlsx
+++ b/topcode_db_design.xlsx
@@ -1,29 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10109"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/1034536E-08F6-4254-9DDF-56465CAEDFD2/Library/Caches/SideLoading/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{B6B935F1-A0FF-514F-AE03-8417058F4F01}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{24140E0B-2941-C54D-8213-981B54E740FD}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="9285"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="db_design" sheetId="1" r:id="rId1"/>
-    <sheet name="roles" sheetId="2" r:id="rId2"/>
-    <sheet name="table description" sheetId="3" r:id="rId3"/>
+    <sheet name="db design" sheetId="1" r:id="rId1"/>
+    <sheet name="sample data" sheetId="4" r:id="rId2"/>
+    <sheet name="roles" sheetId="2" r:id="rId3"/>
+    <sheet name="table description" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="137">
   <si>
     <t>Account</t>
   </si>
   <si>
-    <t>Towers</t>
-  </si>
-  <si>
     <t>Orchestrator</t>
   </si>
   <si>
@@ -48,9 +60,6 @@
     <t>adh_emailid</t>
   </si>
   <si>
-    <t>Users</t>
-  </si>
-  <si>
     <t>Roles</t>
   </si>
   <si>
@@ -105,12 +114,6 @@
     <t>developed_dt</t>
   </si>
   <si>
-    <t>docs_attachments</t>
-  </si>
-  <si>
-    <t>code_script_binary_attachments</t>
-  </si>
-  <si>
     <t>doc_download_cnt</t>
   </si>
   <si>
@@ -147,9 +150,6 @@
     <t>tower_spoc_uid</t>
   </si>
   <si>
-    <t>solution_pkg</t>
-  </si>
-  <si>
     <t>desc</t>
   </si>
   <si>
@@ -168,9 +168,6 @@
     <t>role_id</t>
   </si>
   <si>
-    <t>req_id</t>
-  </si>
-  <si>
     <t>Technical manager</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t>Implementation person who will involve in rolling out feature or release</t>
   </si>
   <si>
-    <t>Team members either developer/qa/business persons</t>
-  </si>
-  <si>
     <t>Technical lead for particular request/idea</t>
   </si>
   <si>
@@ -222,21 +216,12 @@
     <t>Person faciliates/wrap up requirement, design ,implementation till release</t>
   </si>
   <si>
-    <t>BotsPackages</t>
-  </si>
-  <si>
     <t>NewRequestIdea</t>
   </si>
   <si>
-    <t>UsersRoles</t>
-  </si>
-  <si>
     <t>ApprovalFlow</t>
   </si>
   <si>
-    <t>automation_spoc_user_role_id</t>
-  </si>
-  <si>
     <t>EngTeamMembers</t>
   </si>
   <si>
@@ -252,18 +237,12 @@
     <t>attachment_desc</t>
   </si>
   <si>
-    <t>attachement</t>
-  </si>
-  <si>
     <t>Attachments</t>
   </si>
   <si>
     <t>attach_id</t>
   </si>
   <si>
-    <t>type(doc or code)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Table </t>
   </si>
   <si>
@@ -312,9 +291,6 @@
     <t>posted_user_role_id</t>
   </si>
   <si>
-    <t>final_approval_id</t>
-  </si>
-  <si>
     <t>ApprovalFlowHistory</t>
   </si>
   <si>
@@ -333,9 +309,6 @@
     <t>modify_comments</t>
   </si>
   <si>
-    <t>type(req/idea)</t>
-  </si>
-  <si>
     <t>request_id</t>
   </si>
   <si>
@@ -343,12 +316,135 @@
   </si>
   <si>
     <t>eng_member_role(dev/qa/business)</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Tower</t>
+  </si>
+  <si>
+    <t>BotsPackage</t>
+  </si>
+  <si>
+    <t>Usecase</t>
+  </si>
+  <si>
+    <t>UsersRole</t>
+  </si>
+  <si>
+    <t>spoc_user_role_id</t>
+  </si>
+  <si>
+    <t>tower_spoc_id</t>
+  </si>
+  <si>
+    <t>Team members either developer/qa/business persons tagged with account automation owner</t>
+  </si>
+  <si>
+    <t>EngTeamMember</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member of engineering team tagged under tower spoc </t>
+  </si>
+  <si>
+    <t>Attachments for particular solution either doc or code files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uses cases specific to solution </t>
+  </si>
+  <si>
+    <t>RequestIdea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users submitted request or idea </t>
+  </si>
+  <si>
+    <t>Userrole</t>
+  </si>
+  <si>
+    <t>User tagged under role</t>
+  </si>
+  <si>
+    <t>Workflow table</t>
+  </si>
+  <si>
+    <t>Workflow history</t>
+  </si>
+  <si>
+    <t>request_idea_name</t>
+  </si>
+  <si>
+    <t>attachment_id</t>
+  </si>
+  <si>
+    <t>Forum</t>
+  </si>
+  <si>
+    <t>forum_id</t>
+  </si>
+  <si>
+    <t>Comments on idea/solution/usecases</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>eng_member_role</t>
+  </si>
+  <si>
+    <t>Sample values</t>
+  </si>
+  <si>
+    <t>Analyst,Developer,QA</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Code,Document</t>
+  </si>
+  <si>
+    <t>REQUEST,IDEA</t>
+  </si>
+  <si>
+    <t>Business,Design,Technology</t>
+  </si>
+  <si>
+    <t>INIT,REVIEW,HOLD,REJECTED,SOLUTIONED</t>
+  </si>
+  <si>
+    <t>INIT,PROGRESS,REVIEW,HOLD,REJECTED,DONE</t>
+  </si>
+  <si>
+    <t>from_status</t>
+  </si>
+  <si>
+    <t>to_status</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>reference_id</t>
+  </si>
+  <si>
+    <t>reference_notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,15 +470,75 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -442,28 +598,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,8 +716,109 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419733</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>420093</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>37287</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B715214-9D3E-D44A-A298-103A1F661EBF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4339800" y="5333820"/>
+            <a:ext cx="360" cy="3600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B715214-9D3E-D44A-A298-103A1F661EBF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4330800" y="5324820"/>
+              <a:ext cx="18000" cy="21240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2019-01-18T04:07:49.746"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 18805,'0'9'0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -521,7 +864,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,9 +897,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,6 +949,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -764,521 +1141,564 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A5:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="34.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" customWidth="1"/>
-    <col min="13" max="13" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.95703125" customWidth="1"/>
+    <col min="2" max="2" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.02734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.41796875" customWidth="1"/>
+    <col min="5" max="5" width="31.07421875" customWidth="1"/>
+    <col min="6" max="6" width="26.6328125" customWidth="1"/>
+    <col min="7" max="7" width="32.5546875" customWidth="1"/>
+    <col min="8" max="8" width="20.04296875" customWidth="1"/>
+    <col min="9" max="9" width="34.30078125" customWidth="1"/>
+    <col min="10" max="10" width="12.10546875" customWidth="1"/>
+    <col min="11" max="11" width="11.43359375" customWidth="1"/>
+    <col min="12" max="12" width="22.59765625" customWidth="1"/>
+    <col min="13" max="13" width="32.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C6" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E19" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E20" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E21" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E22" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E23" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="E26" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F26" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E27" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="16" t="s">
+      <c r="F27" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E28" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E29" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E30" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="1"/>
+      <c r="E32" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="16" t="s">
+      <c r="G32" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E33" s="34" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E24" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E25" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E28" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E29" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E30" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E31" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="1"/>
-      <c r="E32" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="4" t="s">
-        <v>81</v>
+      <c r="F33" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F34" s="10" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A12:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69B24B0-0682-5B41-BC1E-2996C7C6AF9F}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{68795477-4A75-5B0E-BABE-A8689CD2FF3E}">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="73" customWidth="1"/>
+    <col min="1" max="1" width="17.3515625" customWidth="1"/>
+    <col min="2" max="2" width="16.6796875" customWidth="1"/>
+    <col min="3" max="3" width="48.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="47" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" t="s">
-        <v>96</v>
+      <c r="B7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1287,65 +1707,233 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A12:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A12" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.421875" customWidth="1"/>
+    <col min="2" max="2" width="73.04296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="12" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.29296875" customWidth="1"/>
+    <col min="2" max="2" width="47.75390625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B2" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B6" t="s">
-        <v>89</v>
+      <c r="B8" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
